--- a/Myntra/reviews.xlsx
+++ b/Myntra/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>review_url</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rating</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>upvotes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>downvotes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>totalCountraiting</t>
         </is>
       </c>
     </row>
@@ -473,27 +483,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/14202654</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Sandeep</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>They do not include lower. Also have not mentioned it that it's not included or only jacket has provided. Bigger Joke is that all the search results you get by searching rain jackets which have only rain jackets, model wearing jackets with jeans, but only this product seller has the Idea to include a picture with the rain jacket lower or waterproof material lower and also did not bother to mentioned it in the description that the shown lower is not included. Also if you try to return it, convenience charge will be deducted from the money you have paid. And how the rain jackets is functional if your lower get drenched in rain. It should be a complete package. they don't sell lower seperately if you want it anyway. Completely faulty design.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>19</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1309</t>
         </is>
       </c>
     </row>
@@ -505,27 +525,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/14333366</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Nirmal Kumar Saha</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Good one😊</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>20</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>338</t>
         </is>
       </c>
     </row>
@@ -537,19 +567,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/17777870</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -558,6 +588,16 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -569,27 +609,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/13169148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>anu</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">Looks great, great for a rainy day. </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>13</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>339</t>
         </is>
       </c>
     </row>
@@ -601,27 +651,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/13693076</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Mohit Gurjar</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Got in 599, size M.  Giving 4 star. Completely waterproof rain jacket.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>16</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>461</t>
         </is>
       </c>
     </row>
@@ -633,25 +693,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/17611170</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -665,27 +735,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18288572</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>aftab shaikh</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Value for money product\nBut delevery service is third class very slow and late</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -697,27 +777,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18288528</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Myntra Customer</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Lovely looking and quality of the Jacket is also good. It can be use only in rainy season.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -729,25 +819,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/17611168</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -761,27 +861,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18169972</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Soumya Latha</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>What a wonderful product. proud to say that u will not get anywhere, guys go for it, i promise u , u won't regret but will feel sooo overjoyed like me. I always wanted a thick one and this soo thick, perfect and very beautiful to see. Just as shown in the pic. Thank u sooo much Myntra, u always make us happy.👍❤️❤️🌹🌹💐💐💐🙏🙏</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -793,27 +903,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18976982</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Thinlay Choezom</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>It's good 👍</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -825,27 +945,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/13167946</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Ningthoujam</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>It is so great my dad borrowed it from me and won't return IT</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -857,19 +987,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18288500</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -878,6 +1008,16 @@
       <c r="F14" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -889,25 +1029,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/15400230</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -921,27 +1071,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18288514</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>SANDIP HALDER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Can’t use it as raincoat.  Even in little rain, water licking inside the coat. 3 star for only look and weight. Its very lite weight jacket, not a raincoat.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -953,25 +1113,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18350150</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -985,25 +1155,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18350096</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1017,25 +1197,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/15400260</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1049,27 +1239,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/15400298</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>pooja singh</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Very comfortable and looking too good and good product 😉☺️ I love it  . I am satisfied with my product 😍</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1281,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18288530</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Beerender Brain</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t xml:space="preserve">Looks Good, Fits fine, Comfortable, Stylish, Material quality is thin I was expecting it to be thicker. Hoodie length could have been increased and loosen it a bit. U can't put on hoodie if u have completely zipped. U have to unzip a bit to put on the hoodie. I wanted to return for size for bit longer in length but not a lot of difference in length for different sizes. It holds the rain   water well. </t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1113,27 +1323,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18288556</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>kiran tella</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Looks good and the quality is very good and it's worth the price.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1145,25 +1365,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18288512</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1177,27 +1407,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18415678</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>chandan singh rawat</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>It does not work in mild &amp; heavy rain.\nIf drizzle &amp; sun comes out you will bath in your sweat.\nTotal waste.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1209,27 +1449,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18415688</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Praneeth</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">Superb </t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1241,25 +1491,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/1255603</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1273,27 +1533,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/12907468</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Tapash Kumar Biswas</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t xml:space="preserve">Purchased for trekking but not sure weather it would be enough or not..not worth the price..light weight but cloth material is not good quality as I expected..not yet tested as wind cheaters or as rain jacket.Overall not 100% satisfied </t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -1305,27 +1575,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/13167948</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Sangmuan</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Excellent as depicted...no 1</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1337,25 +1617,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/15942020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1369,19 +1659,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/15942022</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1390,6 +1680,16 @@
       <c r="F30" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1401,25 +1701,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/1255599</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1433,25 +1743,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/17611192</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1465,27 +1785,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/17120990</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Upendra Rajput</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Good jacket but little thinner than expected</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1497,25 +1827,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18935302</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1529,19 +1869,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18350066</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1550,6 +1890,16 @@
       <c r="F35" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1561,27 +1911,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18288526</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>nandu</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Same as shown.... Very good in quality.. Better than expected... Same colour.. Fits well</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1593,25 +1953,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18288560</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1625,25 +1995,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18288508</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1657,27 +2037,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18350168</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>Navadeep c</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t xml:space="preserve">I love this rain coat </t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1689,27 +2079,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18288580</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>SUJEET</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>According to the price of the product this is not worth it, because this not 100% water proof, i would say 70%</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1721,25 +2121,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18288502</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1753,27 +2163,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/18415680</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>vijay</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Wrist cover elastic  very very  loose.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1785,25 +2205,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18734472</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1817,25 +2247,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18976984</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1849,25 +2289,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/20243034</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1881,19 +2331,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/15942026</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1902,6 +2352,16 @@
       <c r="F46" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1913,25 +2373,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18935314</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1945,25 +2415,35 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/18935304</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -1977,19 +2457,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://www.myntra.com/reviews/14265570</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>no review</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1998,6 +2478,16 @@
       <c r="F49" t="inlineStr">
         <is>
           <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2009,27 +2499,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/14265560</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>komal chandani</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t xml:space="preserve">Good </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -2041,27 +2541,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>https://www.myntra.com/reviews/14999418</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>sanvi Rajgariah</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t xml:space="preserve">Really very nice like Poonam Pandey </t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
